--- a/DB_KH.xlsx
+++ b/DB_KH.xlsx
@@ -85,15 +85,156 @@
     <x:t>Gấu bông Lena cosplay Losto</x:t>
   </x:si>
   <x:si>
+    <x:t>0813849477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gấu bông Lena mũ yếm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV446719</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/08/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/10/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trần Thị Thùy Trang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>669 QL1A, khu phố 6, Thủ Đức, Hồ Chí Minh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+1-420-066-6940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>trangttt22411@st.uel.edu.vn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gấu bông thú mỏ vịt Perry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV531963</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/07/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/04/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyễn Quốc Khải</x:t>
+  </x:si>
+  <x:si>
+    <x:t>472 Jordan Manor East Christopherchester</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100-771-6718x53233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khainq22411@st.uel.edu.vn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gấu bông tốt nghiệp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV338646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02/11/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/05/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steven Chandler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>884 Tyler Crescent Nicolefort</x:t>
+  </x:si>
+  <x:si>
+    <x:t>519-511-8016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>robinsimpson@conner-miller.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gấu bông mèo hoàng thượng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV206303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0813849479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[BST Fashion Is In The Air] Artical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV206304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0813849480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV206305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0813849481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV206306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0813849482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gấu bông Doraemon chu mỏ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV206307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0813849483</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV206308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0813849484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0813849485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV239113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/01/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/06/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John Wyatt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>986 Long Harbors Richardshire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+1-307-109-3994</x:t>
+  </x:si>
+  <x:si>
+    <x:t>candicesanders@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gấu bông tốt nghiệp mềm mại ấm áp dễ thương hot trend</x:t>
+  </x:si>
+  <x:si>
     <x:t>INV206301</x:t>
   </x:si>
   <x:si>
-    <x:t>0813849477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gấu bông Lena mũ yếm</x:t>
-  </x:si>
-  <x:si>
     <x:t>INV206302</x:t>
   </x:si>
   <x:si>
@@ -103,78 +244,6 @@
     <x:t>Gấu bông ly trà sữa size 700ml</x:t>
   </x:si>
   <x:si>
-    <x:t>INV206303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0813849479</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[BST Fashion Is In The Air] Artical</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INV206304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0813849480</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gấu bông thú mỏ vịt Perry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INV206305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0813849481</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INV206306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0813849482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gấu bông Doraemon chu mỏ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INV206307</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0813849483</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INV206308</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0813849484</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0813849485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INV239113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16/01/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27/06/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>John Wyatt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>986 Long Harbors Richardshire</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+1-307-109-3994</x:t>
-  </x:si>
-  <x:si>
-    <x:t>candicesanders@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gấu bông tốt nghiệp mềm mại ấm áp dễ thương hot trend</x:t>
-  </x:si>
-  <x:si>
     <x:t>INV328052</x:t>
   </x:si>
   <x:si>
@@ -196,9 +265,6 @@
     <x:t>gwalker@smith.com</x:t>
   </x:si>
   <x:si>
-    <x:t>Gấu bông tốt nghiệp</x:t>
-  </x:si>
-  <x:si>
     <x:t>INV484241</x:t>
   </x:si>
   <x:si>
@@ -244,27 +310,6 @@
     <x:t>Gấu bông Cappybara</x:t>
   </x:si>
   <x:si>
-    <x:t>INV446719</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27/08/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17/10/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trần Thị Thùy Trang</x:t>
-  </x:si>
-  <x:si>
-    <x:t>669 QL1A, khu phố 6, Thủ Đức, Hồ Chí Minh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+1-420-066-6940</x:t>
-  </x:si>
-  <x:si>
-    <x:t>trangttt22411@st.uel.edu.vn</x:t>
-  </x:si>
-  <x:si>
     <x:t>+1-420-066-6941</x:t>
   </x:si>
   <x:si>
@@ -304,9 +349,6 @@
     <x:t>10/06/2025</x:t>
   </x:si>
   <x:si>
-    <x:t>02/11/2022</x:t>
-  </x:si>
-  <x:si>
     <x:t>James Gonzalez</x:t>
   </x:si>
   <x:si>
@@ -415,27 +457,6 @@
     <x:t>Gấu bông Kuromi</x:t>
   </x:si>
   <x:si>
-    <x:t>INV338646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01/05/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steven Chandler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>884 Tyler Crescent Nicolefort</x:t>
-  </x:si>
-  <x:si>
-    <x:t>519-511-8016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>robinsimpson@conner-miller.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gấu bông mèo hoàng thượng</x:t>
-  </x:si>
-  <x:si>
     <x:t>INV847631</x:t>
   </x:si>
   <x:si>
@@ -508,28 +529,7 @@
     <x:t>Gấu bông Kuromi hắc hóa</x:t>
   </x:si>
   <x:si>
-    <x:t>INV531963</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28/07/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27/04/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyễn Quốc Khải</x:t>
-  </x:si>
-  <x:si>
     <x:t>471 Jordan Manor East Christopherchester</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100-771-6718x53233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>khainq22411@st.uel.edu.vn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>472 Jordan Manor East Christopherchester</x:t>
   </x:si>
   <x:si>
     <x:t>473 Jordan Manor East Christopherchester</x:t>
@@ -1402,13 +1402,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G3" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H3" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I3" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J3" s="6">
         <x:v>10</x:v>
@@ -1420,31 +1420,31 @@
     </x:row>
     <x:row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D4" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F4" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G4" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H4" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I4" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J4" s="6">
         <x:v>5</x:v>
@@ -1456,31 +1456,31 @@
     </x:row>
     <x:row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A5" s="6" t="s">
-        <x:v>160</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B5" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="6" t="s">
-        <x:v>161</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D5" s="6" t="s">
-        <x:v>162</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
-        <x:v>163</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F5" s="6" t="s">
-        <x:v>167</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G5" s="6" t="s">
-        <x:v>165</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H5" s="6" t="s">
-        <x:v>166</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J5" s="6">
         <x:v>8</x:v>
@@ -1492,31 +1492,31 @@
     </x:row>
     <x:row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A6" s="6" t="s">
-        <x:v>129</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B6" s="7">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C6" s="6" t="s">
-        <x:v>92</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>130</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>131</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F6" s="6" t="s">
-        <x:v>132</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G6" s="6" t="s">
-        <x:v>133</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>134</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I6" s="3" t="s">
-        <x:v>135</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J6" s="6">
         <x:v>10</x:v>
@@ -1528,7 +1528,7 @@
     </x:row>
     <x:row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A7" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B7" s="7">
         <x:v>1</x:v>
@@ -1546,13 +1546,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G7" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H7" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J7" s="6">
         <x:v>8</x:v>
@@ -1564,7 +1564,7 @@
     </x:row>
     <x:row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A8" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B8" s="7">
         <x:v>1</x:v>
@@ -1582,13 +1582,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G8" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H8" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I8" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J8" s="6">
         <x:v>2</x:v>
@@ -1600,7 +1600,7 @@
     </x:row>
     <x:row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A9" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B9" s="7">
         <x:v>1</x:v>
@@ -1618,13 +1618,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G9" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H9" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I9" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J9" s="6">
         <x:v>7</x:v>
@@ -1636,7 +1636,7 @@
     </x:row>
     <x:row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A10" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B10" s="7">
         <x:v>1</x:v>
@@ -1654,13 +1654,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G10" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H10" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I10" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J10" s="6">
         <x:v>4</x:v>
@@ -1672,7 +1672,7 @@
     </x:row>
     <x:row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A11" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B11" s="7">
         <x:v>1</x:v>
@@ -1690,13 +1690,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G11" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H11" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I11" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J11" s="6">
         <x:v>1</x:v>
@@ -1708,7 +1708,7 @@
     </x:row>
     <x:row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A12" s="6" t="s">
-        <x:v>38</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B12" s="7">
         <x:v>1</x:v>
@@ -1726,13 +1726,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G12" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H12" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I12" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J12" s="6">
         <x:v>8</x:v>
@@ -1762,13 +1762,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G13" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H13" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I13" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J13" s="6">
         <x:v>5</x:v>
@@ -1780,31 +1780,31 @@
     </x:row>
     <x:row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A14" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B14" s="7">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C14" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D14" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F14" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G14" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H14" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I14" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J14" s="6">
         <x:v>8</x:v>
@@ -1852,7 +1852,7 @@
     </x:row>
     <x:row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A16" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B16" s="7">
         <x:v>1</x:v>
@@ -1870,13 +1870,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G16" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H16" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I16" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J16" s="6">
         <x:v>10</x:v>
@@ -1888,7 +1888,7 @@
     </x:row>
     <x:row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A17" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B17" s="7">
         <x:v>1</x:v>
@@ -1906,13 +1906,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G17" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H17" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I17" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J17" s="6">
         <x:v>2</x:v>
@@ -1924,7 +1924,7 @@
     </x:row>
     <x:row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A18" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B18" s="7">
         <x:v>1</x:v>
@@ -1942,13 +1942,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G18" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H18" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I18" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J18" s="6">
         <x:v>8</x:v>
@@ -1960,7 +1960,7 @@
     </x:row>
     <x:row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A19" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B19" s="7">
         <x:v>1</x:v>
@@ -1978,13 +1978,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G19" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H19" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I19" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J19" s="6">
         <x:v>2</x:v>
@@ -1996,7 +1996,7 @@
     </x:row>
     <x:row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A20" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B20" s="7">
         <x:v>1</x:v>
@@ -2014,13 +2014,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G20" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H20" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I20" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J20" s="6">
         <x:v>7</x:v>
@@ -2032,7 +2032,7 @@
     </x:row>
     <x:row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A21" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B21" s="7">
         <x:v>1</x:v>
@@ -2050,13 +2050,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G21" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H21" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I21" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J21" s="6">
         <x:v>4</x:v>
@@ -2068,7 +2068,7 @@
     </x:row>
     <x:row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A22" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B22" s="7">
         <x:v>1</x:v>
@@ -2086,13 +2086,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G22" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H22" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I22" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J22" s="6">
         <x:v>1</x:v>
@@ -2104,7 +2104,7 @@
     </x:row>
     <x:row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A23" s="6" t="s">
-        <x:v>38</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B23" s="7">
         <x:v>1</x:v>
@@ -2122,13 +2122,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G23" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H23" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I23" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J23" s="6">
         <x:v>8</x:v>
@@ -2158,13 +2158,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G24" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H24" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I24" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J24" s="6">
         <x:v>5</x:v>
@@ -2176,31 +2176,31 @@
     </x:row>
     <x:row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A25" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B25" s="7">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C25" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D25" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E25" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F25" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G25" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H25" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I25" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J25" s="6">
         <x:v>8</x:v>
@@ -2248,7 +2248,7 @@
     </x:row>
     <x:row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A27" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B27" s="7">
         <x:v>1</x:v>
@@ -2266,13 +2266,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G27" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I27" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J27" s="6">
         <x:v>10</x:v>
@@ -2284,7 +2284,7 @@
     </x:row>
     <x:row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A28" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B28" s="7">
         <x:v>1</x:v>
@@ -2302,13 +2302,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G28" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H28" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I28" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J28" s="6">
         <x:v>2</x:v>
@@ -2320,7 +2320,7 @@
     </x:row>
     <x:row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A29" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B29" s="7">
         <x:v>1</x:v>
@@ -2338,13 +2338,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G29" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H29" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I29" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J29" s="6">
         <x:v>8</x:v>
@@ -2356,7 +2356,7 @@
     </x:row>
     <x:row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A30" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B30" s="7">
         <x:v>1</x:v>
@@ -2374,13 +2374,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G30" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H30" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I30" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J30" s="6">
         <x:v>2</x:v>
@@ -2392,7 +2392,7 @@
     </x:row>
     <x:row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A31" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B31" s="7">
         <x:v>1</x:v>
@@ -2410,13 +2410,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G31" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H31" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I31" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J31" s="6">
         <x:v>7</x:v>
@@ -2428,7 +2428,7 @@
     </x:row>
     <x:row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A32" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B32" s="9">
         <x:v>1</x:v>
@@ -2446,13 +2446,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G32" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H32" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I32" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J32" s="8">
         <x:v>4</x:v>
@@ -2464,7 +2464,7 @@
     </x:row>
     <x:row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A33" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B33" s="9">
         <x:v>1</x:v>
@@ -2482,13 +2482,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G33" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H33" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I33" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J33" s="8">
         <x:v>1</x:v>
@@ -2500,7 +2500,7 @@
     </x:row>
     <x:row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A34" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B34" s="9">
         <x:v>1</x:v>
@@ -2518,13 +2518,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G34" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H34" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I34" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J34" s="8">
         <x:v>8</x:v>
@@ -2554,13 +2554,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G35" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H35" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I35" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J35" s="8">
         <x:v>5</x:v>
@@ -2572,31 +2572,31 @@
     </x:row>
     <x:row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A36" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B36" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C36" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D36" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E36" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F36" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G36" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H36" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I36" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J36" s="8">
         <x:v>8</x:v>
@@ -2644,7 +2644,7 @@
     </x:row>
     <x:row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A38" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B38" s="9">
         <x:v>1</x:v>
@@ -2662,13 +2662,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G38" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H38" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I38" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J38" s="8">
         <x:v>10</x:v>
@@ -2680,7 +2680,7 @@
     </x:row>
     <x:row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A39" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B39" s="9">
         <x:v>1</x:v>
@@ -2698,13 +2698,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G39" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H39" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I39" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J39" s="8">
         <x:v>2</x:v>
@@ -2716,7 +2716,7 @@
     </x:row>
     <x:row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A40" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B40" s="9">
         <x:v>1</x:v>
@@ -2734,13 +2734,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G40" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H40" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I40" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J40" s="8">
         <x:v>8</x:v>
@@ -2752,7 +2752,7 @@
     </x:row>
     <x:row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A41" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B41" s="9">
         <x:v>1</x:v>
@@ -2770,13 +2770,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G41" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H41" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I41" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J41" s="8">
         <x:v>2</x:v>
@@ -2788,7 +2788,7 @@
     </x:row>
     <x:row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A42" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B42" s="9">
         <x:v>1</x:v>
@@ -2806,13 +2806,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G42" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H42" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I42" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J42" s="8">
         <x:v>7</x:v>
@@ -2824,7 +2824,7 @@
     </x:row>
     <x:row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A43" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B43" s="9">
         <x:v>1</x:v>
@@ -2842,13 +2842,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G43" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H43" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I43" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J43" s="8">
         <x:v>4</x:v>
@@ -2860,7 +2860,7 @@
     </x:row>
     <x:row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A44" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B44" s="9">
         <x:v>1</x:v>
@@ -2878,13 +2878,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G44" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H44" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I44" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J44" s="8">
         <x:v>1</x:v>
@@ -2896,7 +2896,7 @@
     </x:row>
     <x:row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A45" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B45" s="9">
         <x:v>1</x:v>
@@ -2914,13 +2914,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G45" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H45" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I45" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J45" s="8">
         <x:v>8</x:v>
@@ -2950,13 +2950,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G46" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H46" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I46" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J46" s="8">
         <x:v>5</x:v>
@@ -2968,31 +2968,31 @@
     </x:row>
     <x:row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A47" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B47" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C47" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D47" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E47" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F47" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G47" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H47" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I47" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J47" s="8">
         <x:v>8</x:v>
@@ -3040,7 +3040,7 @@
     </x:row>
     <x:row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A49" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B49" s="9">
         <x:v>1</x:v>
@@ -3058,13 +3058,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G49" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H49" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I49" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J49" s="8">
         <x:v>10</x:v>
@@ -3076,7 +3076,7 @@
     </x:row>
     <x:row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A50" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B50" s="9">
         <x:v>1</x:v>
@@ -3094,13 +3094,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G50" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H50" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I50" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J50" s="8">
         <x:v>2</x:v>
@@ -3112,7 +3112,7 @@
     </x:row>
     <x:row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A51" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B51" s="9">
         <x:v>1</x:v>
@@ -3130,13 +3130,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G51" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H51" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I51" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J51" s="8">
         <x:v>8</x:v>
@@ -3148,7 +3148,7 @@
     </x:row>
     <x:row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A52" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B52" s="9">
         <x:v>1</x:v>
@@ -3166,13 +3166,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G52" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H52" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I52" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J52" s="8">
         <x:v>2</x:v>
@@ -3184,7 +3184,7 @@
     </x:row>
     <x:row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A53" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B53" s="9">
         <x:v>1</x:v>
@@ -3202,13 +3202,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G53" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H53" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I53" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J53" s="8">
         <x:v>7</x:v>
@@ -3220,7 +3220,7 @@
     </x:row>
     <x:row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A54" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B54" s="9">
         <x:v>1</x:v>
@@ -3238,13 +3238,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G54" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H54" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I54" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J54" s="8">
         <x:v>4</x:v>
@@ -3256,7 +3256,7 @@
     </x:row>
     <x:row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A55" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B55" s="9">
         <x:v>1</x:v>
@@ -3274,13 +3274,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G55" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H55" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I55" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J55" s="8">
         <x:v>1</x:v>
@@ -3292,7 +3292,7 @@
     </x:row>
     <x:row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A56" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B56" s="9">
         <x:v>1</x:v>
@@ -3310,13 +3310,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G56" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H56" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I56" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J56" s="8">
         <x:v>8</x:v>
@@ -3346,13 +3346,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G57" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H57" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I57" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J57" s="8">
         <x:v>5</x:v>
@@ -3364,31 +3364,31 @@
     </x:row>
     <x:row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A58" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B58" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C58" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D58" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E58" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F58" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G58" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H58" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I58" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J58" s="8">
         <x:v>8</x:v>
@@ -3454,13 +3454,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G60" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H60" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I60" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J60" s="8">
         <x:v>10</x:v>
@@ -3490,13 +3490,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G61" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H61" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I61" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J61" s="8">
         <x:v>2</x:v>
@@ -3526,13 +3526,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G62" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H62" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I62" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J62" s="8">
         <x:v>8</x:v>
@@ -3562,13 +3562,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G63" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H63" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I63" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J63" s="8">
         <x:v>2</x:v>
@@ -3598,13 +3598,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G64" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H64" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I64" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J64" s="8">
         <x:v>7</x:v>
@@ -3634,13 +3634,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G65" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H65" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I65" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J65" s="8">
         <x:v>4</x:v>
@@ -3670,13 +3670,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G66" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H66" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I66" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J66" s="8">
         <x:v>1</x:v>
@@ -3706,13 +3706,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G67" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H67" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I67" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J67" s="8">
         <x:v>8</x:v>
@@ -3742,13 +3742,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G68" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H68" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I68" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J68" s="8">
         <x:v>5</x:v>
@@ -3760,31 +3760,31 @@
     </x:row>
     <x:row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A69" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B69" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C69" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D69" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E69" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F69" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G69" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H69" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I69" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J69" s="8">
         <x:v>8</x:v>
@@ -3850,13 +3850,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G71" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H71" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I71" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J71" s="8">
         <x:v>10</x:v>
@@ -3886,13 +3886,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G72" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H72" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I72" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J72" s="8">
         <x:v>2</x:v>
@@ -3922,13 +3922,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G73" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H73" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I73" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J73" s="8">
         <x:v>8</x:v>
@@ -3958,13 +3958,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G74" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H74" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I74" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J74" s="8">
         <x:v>2</x:v>
@@ -3994,13 +3994,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G75" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H75" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I75" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J75" s="8">
         <x:v>7</x:v>
@@ -4030,13 +4030,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G76" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H76" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I76" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J76" s="8">
         <x:v>4</x:v>
@@ -4066,13 +4066,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G77" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H77" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I77" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J77" s="8">
         <x:v>1</x:v>
@@ -4102,13 +4102,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G78" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H78" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I78" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J78" s="8">
         <x:v>8</x:v>
@@ -4138,13 +4138,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G79" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H79" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I79" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J79" s="8">
         <x:v>5</x:v>
@@ -4156,31 +4156,31 @@
     </x:row>
     <x:row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A80" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B80" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C80" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D80" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E80" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F80" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G80" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H80" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I80" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J80" s="8">
         <x:v>8</x:v>
@@ -4246,13 +4246,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G82" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H82" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I82" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J82" s="8">
         <x:v>10</x:v>
@@ -4282,13 +4282,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G83" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H83" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I83" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J83" s="8">
         <x:v>2</x:v>
@@ -4318,13 +4318,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G84" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H84" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I84" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J84" s="8">
         <x:v>8</x:v>
@@ -4354,13 +4354,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G85" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H85" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I85" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J85" s="8">
         <x:v>2</x:v>
@@ -4390,13 +4390,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G86" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H86" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I86" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J86" s="8">
         <x:v>7</x:v>
@@ -4426,13 +4426,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G87" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H87" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I87" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J87" s="8">
         <x:v>4</x:v>
@@ -4462,13 +4462,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G88" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H88" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I88" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J88" s="8">
         <x:v>1</x:v>
@@ -4498,13 +4498,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G89" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H89" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I89" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J89" s="8">
         <x:v>8</x:v>
@@ -4534,13 +4534,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G90" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H90" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I90" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J90" s="8">
         <x:v>5</x:v>
@@ -4552,31 +4552,31 @@
     </x:row>
     <x:row r="91" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A91" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B91" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C91" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D91" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E91" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F91" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G91" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H91" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I91" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J91" s="8">
         <x:v>8</x:v>
@@ -4642,13 +4642,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G93" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H93" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I93" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J93" s="8">
         <x:v>10</x:v>
@@ -4678,13 +4678,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G94" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H94" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I94" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J94" s="8">
         <x:v>2</x:v>
@@ -4714,13 +4714,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G95" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H95" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I95" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J95" s="8">
         <x:v>8</x:v>
@@ -4750,13 +4750,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G96" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H96" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I96" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J96" s="8">
         <x:v>2</x:v>
@@ -4786,13 +4786,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G97" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H97" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I97" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J97" s="8">
         <x:v>7</x:v>
@@ -4822,13 +4822,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G98" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H98" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I98" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J98" s="8">
         <x:v>4</x:v>
@@ -4858,13 +4858,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G99" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H99" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I99" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J99" s="8">
         <x:v>1</x:v>
@@ -4894,13 +4894,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G100" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H100" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I100" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J100" s="8">
         <x:v>8</x:v>
@@ -4930,13 +4930,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G101" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H101" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I101" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J101" s="8">
         <x:v>5</x:v>
@@ -4948,31 +4948,31 @@
     </x:row>
     <x:row r="102" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A102" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B102" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C102" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D102" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E102" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F102" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G102" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H102" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I102" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J102" s="8">
         <x:v>8</x:v>
@@ -5038,13 +5038,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G104" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H104" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I104" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J104" s="8">
         <x:v>10</x:v>
@@ -5074,13 +5074,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G105" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H105" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I105" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J105" s="8">
         <x:v>2</x:v>
@@ -5110,13 +5110,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G106" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H106" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I106" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J106" s="8">
         <x:v>8</x:v>
@@ -5146,13 +5146,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G107" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H107" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I107" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J107" s="8">
         <x:v>2</x:v>
@@ -5182,13 +5182,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G108" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H108" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I108" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J108" s="8">
         <x:v>7</x:v>
@@ -5218,13 +5218,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G109" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H109" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I109" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J109" s="8">
         <x:v>4</x:v>
@@ -5254,13 +5254,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G110" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H110" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I110" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J110" s="8">
         <x:v>1</x:v>
@@ -5290,13 +5290,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G111" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H111" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I111" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J111" s="8">
         <x:v>8</x:v>
@@ -5326,13 +5326,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G112" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H112" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I112" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J112" s="8">
         <x:v>5</x:v>
@@ -5344,31 +5344,31 @@
     </x:row>
     <x:row r="113" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A113" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B113" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C113" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D113" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E113" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F113" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G113" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H113" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I113" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J113" s="8">
         <x:v>8</x:v>
@@ -5434,13 +5434,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G115" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H115" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I115" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J115" s="8">
         <x:v>10</x:v>
@@ -5470,13 +5470,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G116" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H116" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I116" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J116" s="8">
         <x:v>2</x:v>
@@ -5506,13 +5506,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G117" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H117" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I117" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J117" s="8">
         <x:v>8</x:v>
@@ -5542,13 +5542,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G118" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H118" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I118" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J118" s="8">
         <x:v>2</x:v>
@@ -5578,13 +5578,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G119" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H119" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I119" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J119" s="8">
         <x:v>7</x:v>
@@ -5614,13 +5614,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G120" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H120" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I120" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J120" s="8">
         <x:v>4</x:v>
@@ -5650,13 +5650,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G121" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H121" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I121" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J121" s="8">
         <x:v>1</x:v>
@@ -5686,13 +5686,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G122" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H122" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I122" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J122" s="8">
         <x:v>8</x:v>
@@ -5722,13 +5722,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G123" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H123" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I123" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J123" s="8">
         <x:v>5</x:v>
@@ -5740,31 +5740,31 @@
     </x:row>
     <x:row r="124" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A124" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B124" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C124" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D124" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E124" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F124" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G124" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H124" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I124" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J124" s="8">
         <x:v>8</x:v>
@@ -5830,13 +5830,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G126" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H126" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I126" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J126" s="8">
         <x:v>10</x:v>
@@ -5866,13 +5866,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G127" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H127" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I127" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J127" s="8">
         <x:v>2</x:v>
@@ -5902,13 +5902,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G128" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H128" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I128" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J128" s="8">
         <x:v>8</x:v>
@@ -5938,13 +5938,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G129" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H129" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I129" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J129" s="8">
         <x:v>2</x:v>
@@ -5974,13 +5974,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G130" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H130" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I130" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J130" s="8">
         <x:v>7</x:v>
@@ -6010,13 +6010,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G131" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H131" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I131" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J131" s="8">
         <x:v>4</x:v>
@@ -6046,13 +6046,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G132" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H132" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I132" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J132" s="8">
         <x:v>1</x:v>
@@ -6082,13 +6082,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G133" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H133" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I133" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J133" s="8">
         <x:v>8</x:v>
@@ -6118,13 +6118,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G134" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H134" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I134" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J134" s="8">
         <x:v>5</x:v>
@@ -6136,31 +6136,31 @@
     </x:row>
     <x:row r="135" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A135" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B135" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C135" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D135" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E135" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F135" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G135" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H135" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I135" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J135" s="8">
         <x:v>8</x:v>
@@ -6226,13 +6226,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G137" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H137" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I137" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J137" s="8">
         <x:v>10</x:v>
@@ -6262,13 +6262,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G138" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H138" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I138" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J138" s="8">
         <x:v>2</x:v>
@@ -6298,13 +6298,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G139" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H139" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I139" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J139" s="8">
         <x:v>8</x:v>
@@ -6334,13 +6334,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G140" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H140" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I140" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J140" s="8">
         <x:v>2</x:v>
@@ -6370,13 +6370,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G141" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H141" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I141" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J141" s="8">
         <x:v>7</x:v>
@@ -6406,13 +6406,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G142" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H142" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I142" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J142" s="8">
         <x:v>4</x:v>
@@ -6442,13 +6442,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G143" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H143" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I143" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J143" s="8">
         <x:v>1</x:v>
@@ -6478,13 +6478,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G144" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H144" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I144" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J144" s="8">
         <x:v>8</x:v>
@@ -6514,13 +6514,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G145" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H145" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I145" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J145" s="8">
         <x:v>5</x:v>
@@ -6532,31 +6532,31 @@
     </x:row>
     <x:row r="146" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A146" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B146" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C146" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D146" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E146" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F146" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G146" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H146" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I146" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J146" s="8">
         <x:v>8</x:v>
@@ -6622,13 +6622,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G148" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H148" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I148" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J148" s="8">
         <x:v>10</x:v>
@@ -6658,13 +6658,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G149" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H149" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I149" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J149" s="8">
         <x:v>2</x:v>
@@ -6694,13 +6694,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G150" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H150" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I150" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J150" s="8">
         <x:v>8</x:v>
@@ -6730,13 +6730,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G151" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H151" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I151" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J151" s="8">
         <x:v>2</x:v>
@@ -6766,13 +6766,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G152" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H152" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I152" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J152" s="8">
         <x:v>7</x:v>
@@ -6802,13 +6802,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G153" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H153" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I153" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J153" s="8">
         <x:v>4</x:v>
@@ -6838,13 +6838,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G154" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H154" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I154" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J154" s="8">
         <x:v>1</x:v>
@@ -6874,13 +6874,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G155" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H155" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I155" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J155" s="8">
         <x:v>8</x:v>
@@ -6910,13 +6910,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G156" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H156" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="I156" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J156" s="8">
         <x:v>5</x:v>
@@ -6928,31 +6928,31 @@
     </x:row>
     <x:row r="157" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A157" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B157" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C157" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D157" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E157" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F157" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G157" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H157" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I157" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J157" s="8">
         <x:v>8</x:v>
@@ -6964,31 +6964,31 @@
     </x:row>
     <x:row r="158" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A158" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B158" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C158" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D158" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E158" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F158" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G158" s="8" t="s">
-        <x:v>54</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H158" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I158" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J158" s="8">
         <x:v>9</x:v>
@@ -7000,31 +7000,31 @@
     </x:row>
     <x:row r="159" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A159" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B159" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C159" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D159" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E159" s="8" t="s">
-        <x:v>60</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F159" s="8" t="s">
-        <x:v>61</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G159" s="8" t="s">
-        <x:v>62</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H159" s="8" t="s">
-        <x:v>63</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I159" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J159" s="8">
         <x:v>9</x:v>
@@ -7036,31 +7036,31 @@
     </x:row>
     <x:row r="160" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A160" s="8" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B160" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C160" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D160" s="8" t="s">
-        <x:v>66</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E160" s="8" t="s">
-        <x:v>67</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F160" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G160" s="8" t="s">
-        <x:v>69</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H160" s="8" t="s">
-        <x:v>70</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I160" s="8" t="s">
-        <x:v>71</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="J160" s="8">
         <x:v>7</x:v>
@@ -7072,31 +7072,31 @@
     </x:row>
     <x:row r="161" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A161" s="8" t="s">
-        <x:v>72</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B161" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C161" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D161" s="8" t="s">
-        <x:v>74</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E161" s="8" t="s">
-        <x:v>75</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F161" s="8" t="s">
-        <x:v>76</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G161" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H161" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I161" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J161" s="8">
         <x:v>5</x:v>
@@ -7108,31 +7108,31 @@
     </x:row>
     <x:row r="162" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A162" s="8" t="s">
-        <x:v>72</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B162" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C162" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D162" s="8" t="s">
-        <x:v>74</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E162" s="8" t="s">
-        <x:v>75</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F162" s="8" t="s">
-        <x:v>76</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G162" s="8" t="s">
-        <x:v>79</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H162" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I162" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J162" s="8">
         <x:v>4</x:v>
@@ -7144,31 +7144,31 @@
     </x:row>
     <x:row r="163" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A163" s="8" t="s">
-        <x:v>72</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B163" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C163" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D163" s="8" t="s">
-        <x:v>74</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E163" s="8" t="s">
-        <x:v>75</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F163" s="8" t="s">
-        <x:v>76</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G163" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H163" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I163" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J163" s="8">
         <x:v>8</x:v>
@@ -7180,31 +7180,31 @@
     </x:row>
     <x:row r="164" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A164" s="8" t="s">
-        <x:v>72</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B164" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C164" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D164" s="8" t="s">
-        <x:v>74</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E164" s="8" t="s">
-        <x:v>75</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F164" s="8" t="s">
-        <x:v>76</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G164" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H164" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I164" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J164" s="8">
         <x:v>2</x:v>
@@ -7216,31 +7216,31 @@
     </x:row>
     <x:row r="165" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A165" s="8" t="s">
-        <x:v>82</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B165" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C165" s="8" t="s">
-        <x:v>83</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D165" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E165" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F165" s="8" t="s">
-        <x:v>86</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G165" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H165" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I165" s="8" t="s">
-        <x:v>89</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J165" s="8">
         <x:v>10</x:v>
@@ -7252,31 +7252,31 @@
     </x:row>
     <x:row r="166" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A166" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B166" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C166" s="8" t="s">
-        <x:v>91</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D166" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E166" s="8" t="s">
-        <x:v>93</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F166" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G166" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H166" s="8" t="s">
-        <x:v>96</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I166" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="J166" s="8">
         <x:v>10</x:v>
@@ -7288,31 +7288,31 @@
     </x:row>
     <x:row r="167" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A167" s="8" t="s">
-        <x:v>98</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B167" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C167" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D167" s="8" t="s">
-        <x:v>100</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E167" s="8" t="s">
-        <x:v>101</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F167" s="8" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G167" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H167" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I167" s="8" t="s">
-        <x:v>105</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="J167" s="8">
         <x:v>10</x:v>
@@ -7324,31 +7324,31 @@
     </x:row>
     <x:row r="168" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A168" s="8" t="s">
-        <x:v>106</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B168" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C168" s="8" t="s">
-        <x:v>107</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D168" s="8" t="s">
-        <x:v>108</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E168" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F168" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G168" s="8" t="s">
-        <x:v>111</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H168" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I168" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J168" s="8">
         <x:v>4</x:v>
@@ -7360,31 +7360,31 @@
     </x:row>
     <x:row r="169" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A169" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B169" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C169" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D169" s="8" t="s">
-        <x:v>115</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E169" s="8" t="s">
-        <x:v>116</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F169" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G169" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H169" s="8" t="s">
-        <x:v>119</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I169" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J169" s="8">
         <x:v>2</x:v>
@@ -7396,31 +7396,31 @@
     </x:row>
     <x:row r="170" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A170" s="8" t="s">
-        <x:v>121</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B170" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C170" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D170" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E170" s="8" t="s">
-        <x:v>124</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F170" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G170" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H170" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="I170" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="J170" s="8">
         <x:v>8</x:v>
@@ -7432,31 +7432,31 @@
     </x:row>
     <x:row r="171" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A171" s="8" t="s">
-        <x:v>129</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B171" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C171" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D171" s="8" t="s">
-        <x:v>130</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E171" s="8" t="s">
-        <x:v>131</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F171" s="8" t="s">
-        <x:v>132</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G171" s="8" t="s">
-        <x:v>133</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H171" s="8" t="s">
-        <x:v>134</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I171" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J171" s="8">
         <x:v>10</x:v>
@@ -7468,31 +7468,31 @@
     </x:row>
     <x:row r="172" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A172" s="8" t="s">
-        <x:v>136</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B172" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C172" s="8" t="s">
-        <x:v>137</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D172" s="8" t="s">
-        <x:v>138</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E172" s="8" t="s">
-        <x:v>139</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F172" s="8" t="s">
-        <x:v>140</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G172" s="8" t="s">
-        <x:v>141</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H172" s="8" t="s">
-        <x:v>142</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I172" s="8" t="s">
-        <x:v>143</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J172" s="8">
         <x:v>6</x:v>
@@ -7504,31 +7504,31 @@
     </x:row>
     <x:row r="173" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A173" s="8" t="s">
-        <x:v>144</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B173" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C173" s="8" t="s">
-        <x:v>145</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D173" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E173" s="8" t="s">
-        <x:v>147</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F173" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G173" s="8" t="s">
-        <x:v>149</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H173" s="8" t="s">
-        <x:v>150</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I173" s="8" t="s">
-        <x:v>151</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J173" s="8">
         <x:v>9</x:v>
@@ -7540,31 +7540,31 @@
     </x:row>
     <x:row r="174" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A174" s="8" t="s">
-        <x:v>152</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B174" s="9">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C174" s="8" t="s">
-        <x:v>153</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D174" s="8" t="s">
-        <x:v>154</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E174" s="8" t="s">
-        <x:v>155</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F174" s="8" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G174" s="8" t="s">
-        <x:v>157</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="H174" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I174" s="8" t="s">
-        <x:v>159</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="J174" s="8">
         <x:v>10</x:v>
@@ -7576,31 +7576,31 @@
     </x:row>
     <x:row r="175" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A175" s="8" t="s">
-        <x:v>160</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B175" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C175" s="8" t="s">
-        <x:v>161</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D175" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E175" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F175" s="8" t="s">
-        <x:v>164</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G175" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H175" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I175" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J175" s="8">
         <x:v>2</x:v>
@@ -7612,31 +7612,31 @@
     </x:row>
     <x:row r="176" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A176" s="8" t="s">
-        <x:v>160</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B176" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C176" s="8" t="s">
-        <x:v>161</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D176" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E176" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F176" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G176" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H176" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I176" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J176" s="8">
         <x:v>8</x:v>
@@ -7648,31 +7648,31 @@
     </x:row>
     <x:row r="177" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A177" s="8" t="s">
-        <x:v>160</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B177" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C177" s="8" t="s">
-        <x:v>161</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D177" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E177" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F177" s="8" t="s">
         <x:v>168</x:v>
       </x:c>
       <x:c r="G177" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H177" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I177" s="8" t="s">
-        <x:v>89</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J177" s="8">
         <x:v>1</x:v>
@@ -7708,7 +7708,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="I178" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J178" s="8">
         <x:v>9</x:v>
@@ -7780,7 +7780,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="I180" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J180" s="8">
         <x:v>2</x:v>
@@ -7945,7 +7945,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="D185" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E185" s="8" t="s">
         <x:v>225</x:v>
@@ -8068,7 +8068,7 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="I188" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="J188" s="8">
         <x:v>10</x:v>
